--- a/epm/input/data_capp/trade/interconnection_calculation.xlsx
+++ b/epm/input/data_capp/trade/interconnection_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Documents/World Bank/Projects/EPM_APPLIED/EPM_CAPP/epm/input/data_capp/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4CABC-FFE2-0B4A-891F-90F8FF26D0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86FF0E6-AD7B-B544-8B07-39B1D3A71E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4460" yWindow="-20800" windowWidth="25800" windowHeight="17440" xr2:uid="{07CF8303-320E-D54A-BEEB-47604AE4AA3A}"/>
   </bookViews>
@@ -35,45 +35,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
-    <t>Longueur de la ligne</t>
-  </si>
-  <si>
     <t>km</t>
   </si>
   <si>
-    <t>Coût ligne aérienne</t>
-  </si>
-  <si>
     <t>M$/km</t>
   </si>
   <si>
-    <t>Npostes</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
     <t>M$/poste</t>
   </si>
   <si>
-    <t>Coût poste (moyenne d’une baie + extension poste)</t>
-  </si>
-  <si>
-    <t>Ncomp (nombre de site de compensation)</t>
-  </si>
-  <si>
     <t>M$/site</t>
   </si>
   <si>
-    <t>Coût compensation (SVC, STATCOM ou compensation série)</t>
-  </si>
-  <si>
-    <t>Coût section</t>
-  </si>
-  <si>
-    <t>Nsection</t>
-  </si>
-  <si>
     <t>M$/section</t>
   </si>
   <si>
@@ -83,52 +59,92 @@
     <t>MW</t>
   </si>
   <si>
-    <t>Capacité disponible</t>
-  </si>
-  <si>
-    <t>SIL (Surge Impedance Loading) = capacité réactive nulle</t>
-  </si>
-  <si>
-    <t>k(L) (stability derating factor) = facteur stabilité longueur</t>
-  </si>
-  <si>
-    <t>Pdispo (available transfer capacity) = puissance réellement disponible</t>
-  </si>
-  <si>
-    <t>Pstab  (stability-limited transfer capacity)</t>
-  </si>
-  <si>
-    <t>Nombre de ligne</t>
-  </si>
-  <si>
-    <t>Coût totale ligne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coût total </t>
-  </si>
-  <si>
-    <t>Interconnection</t>
-  </si>
-  <si>
     <t>kV</t>
   </si>
   <si>
-    <t>Tension</t>
-  </si>
-  <si>
-    <t>H (Tension)</t>
-  </si>
-  <si>
-    <t>I Coût ligne (M$/km)</t>
-  </si>
-  <si>
-    <t>J Coût poste (M$/poste)</t>
-  </si>
-  <si>
-    <t>K Coût section (M$/section)</t>
-  </si>
-  <si>
-    <t>L Coût comp (M$/site)</t>
+    <t>Number of lines</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Line length</t>
+  </si>
+  <si>
+    <t>SIL (Surge Impedance Loading) = zero reactive power capacity</t>
+  </si>
+  <si>
+    <t>K(L) (stability derating factor) = length-related stability factor</t>
+  </si>
+  <si>
+    <t>Pstab (stability-limited transfer capacity)</t>
+  </si>
+  <si>
+    <t>Pavail (available transfer capacity) = actual available capacity</t>
+  </si>
+  <si>
+    <t>Overhead line cost</t>
+  </si>
+  <si>
+    <t>Number of substations</t>
+  </si>
+  <si>
+    <t>Substation cost (average of one bay + substation extension)</t>
+  </si>
+  <si>
+    <t>Number of sections</t>
+  </si>
+  <si>
+    <t>Section cost</t>
+  </si>
+  <si>
+    <t>Compensation cost (SVC, STATCOM, or series compensation)</t>
+  </si>
+  <si>
+    <t>Substation cost (average of one bay + extension)</t>
+  </si>
+  <si>
+    <t>Total line cost</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Available capacity</t>
+  </si>
+  <si>
+    <t>Voltage (kV)</t>
+  </si>
+  <si>
+    <t>Overhead line cost (M$/km)</t>
+  </si>
+  <si>
+    <t>Substation cost (M$/poste)</t>
+  </si>
+  <si>
+    <t>Number of compensation sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compensation cost </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This calculation sheet is used to make first-order approximations of transmission line characteristics and costs when detailed project data are not available. It is typically applied in cases where potential new interconnections are being considered, or when only public information exists.
+Based solely on two key inputs — voltage level and line length — the tool estimates:
+- the total investment cost (including lines, substations, and compensation equipment), and
+- the available transfer capacity of the line.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>These estimates provide input assumptions for the Electricity Planning Model (EPM), which requires indicative transmission capacity and cost parameters for its capacity expansion and least-cost investment analyses.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -288,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,8 +484,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -587,8 +615,72 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -639,20 +731,42 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1029,330 +1143,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBC9521-7637-A145-B57F-FA4AA8CD8A9A}">
-  <dimension ref="A2:I30"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:10" ht="267" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="17">
+        <v>220</v>
+      </c>
+      <c r="F7" s="3">
+        <v>400</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>220</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="19">
+        <f>650*($D$7/400)^2</f>
+        <v>196.62500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="20">
+        <f>IF(D8&lt;=200,1.6,IF(D8&lt;=400,1.2,IF(D8&lt;=800,0.8,IF(D8&lt;=1200,0.6,0.5))))</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="19">
+        <f>D11*D10</f>
+        <v>235.95000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="19">
+        <f>MIN(600, D12)*$D$6</f>
+        <v>235.95000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <f>VLOOKUP($D$7,$F$6:$J$8,2,FALSE)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="20">
+        <f>VLOOKUP($D$7,$F$6:$J$8,3,FALSE)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="19">
+        <f>IF($D$8&gt;600,1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="20">
+        <f>VLOOKUP($D$7,$F$6:$J$8,4,FALSE)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="19">
+        <f>MAX(0, ROUND($D$13/500, 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="20">
+        <f>VLOOKUP($D$7,$F$6:$J$8,5,FALSE)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="19">
+        <f>D8*D15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="19">
+        <f>D17*D16</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="19">
+        <f>D19*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="21">
+        <f>D21*D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="22">
+        <f>SUM(D24:D27)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="11">
+        <f>D28*D6</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6">
-        <v>220</v>
-      </c>
-      <c r="E5" s="5">
-        <v>400</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>300</v>
-      </c>
-      <c r="E6" s="5">
-        <v>220</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I6" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
-        <f>650*($C$5/400)^2</f>
-        <v>196.62500000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8">
-        <f>IF(C6&lt;=200,1.6,IF(C6&lt;=400,1.2,IF(C6&lt;=800,0.8,IF(C6&lt;=1200,0.6,0.5))))</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6">
-        <f>C9*C8</f>
-        <v>235.95000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6">
-        <f>MIN(600, C10)*$C$4</f>
-        <v>235.95000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8">
-        <f>VLOOKUP($C$5,$E$4:$I$6,2,FALSE)</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8">
-        <f>VLOOKUP($C$5,$E$4:$I$6,3,FALSE)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6">
-        <f>IF($C$6&gt;600,1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8">
-        <f>VLOOKUP($C$5,$E$4:$I$6,4,FALSE)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6">
-        <f>MAX(0, ROUND($C$11/500, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="8">
-        <f>VLOOKUP($C$5,$E$4:$I$6,5,FALSE)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6">
-        <f>C6*C14</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="6">
-        <f>C16*C15</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="6">
-        <f>C18*C17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="7">
-        <f>C20*C19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="6">
-        <f>SUM(C23:C26)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="6">
-        <f>C27*C4</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="6">
-        <f>$C$11</f>
+      <c r="D31" s="14">
+        <f>$D$13</f>
         <v>235.95000000000002</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{62544C00-90C6-9248-8D09-120983E70DF1}">
-      <formula1>$E$5:$E$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7" xr:uid="{62544C00-90C6-9248-8D09-120983E70DF1}">
+      <formula1>$F$7:$F$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
